--- a/routers/AAA/AAA/Codigo456NombreSeparadoPorMayusculasSinEspacios.xlsx
+++ b/routers/AAA/AAA/Codigo456NombreSeparadoPorMayusculasSinEspacios.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parámetros" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Coordenadas" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Participantes" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="DH3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="DH6" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t xml:space="preserve">Parametro</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Titulación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
   </si>
   <si>
     <t xml:space="preserve">Ene</t>
@@ -429,8 +432,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,16 +488,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -533,989 +536,1064 @@
       <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>6</v>
+      <c r="A2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>6</v>
+      <c r="A3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>6</v>
+      <c r="A4" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>6</v>
+      <c r="A5" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>6</v>
+      <c r="A6" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
+      <c r="A7" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>6</v>
+      <c r="A9" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>2</v>
+      <c r="A10" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>1</v>
+      <c r="A11" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>1</v>
+      <c r="A12" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>1</v>
+      <c r="A13" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>1</v>
+      <c r="A14" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1</v>
+      <c r="A15" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>2</v>
+      <c r="A16" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>2</v>
+      <c r="A17" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>2</v>
+      <c r="A18" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>2</v>
+      <c r="A19" s="0" t="n">
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>1</v>
+      <c r="A20" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>1</v>
+      <c r="A21" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>1</v>
+      <c r="A22" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>1</v>
+      <c r="A23" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>2</v>
+      <c r="A24" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>2</v>
+      <c r="A25" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1534,16 +1612,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1582,338 +1660,365 @@
       <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>3</v>
+      <c r="A2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>3</v>
+      <c r="A3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
+      <c r="A4" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>3</v>
+      <c r="A6" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
+      <c r="A7" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>3</v>
+      <c r="A8" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>3</v>
+      <c r="A9" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>2</v>
+      <c r="A10" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
@@ -1922,80 +2027,86 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>2</v>
+      <c r="A11" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>1</v>
+      <c r="A12" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
@@ -2004,39 +2115,42 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>1</v>
+      <c r="A13" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
@@ -2045,39 +2159,42 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>1</v>
+      <c r="A14" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
@@ -2086,39 +2203,42 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1</v>
+      <c r="A15" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
@@ -2127,39 +2247,42 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>2</v>
+      <c r="A16" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
@@ -2168,39 +2291,42 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>2</v>
+      <c r="A17" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>2</v>
@@ -2209,39 +2335,42 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>2</v>
+      <c r="A18" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2</v>
@@ -2250,39 +2379,42 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>2</v>
+      <c r="A19" s="0" t="n">
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>2</v>
@@ -2291,39 +2423,42 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>1</v>
+      <c r="A20" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
@@ -2332,39 +2467,42 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>1</v>
+      <c r="A21" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
@@ -2373,39 +2511,42 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>1</v>
+      <c r="A22" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
@@ -2414,39 +2555,42 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>1</v>
+      <c r="A23" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1</v>
@@ -2455,39 +2599,42 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>2</v>
+      <c r="A24" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2</v>
@@ -2496,39 +2643,42 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>2</v>
+      <c r="A25" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>2</v>
@@ -2537,34 +2687,37 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
